--- a/input-data/metadata.xlsx
+++ b/input-data/metadata.xlsx
@@ -107,51 +107,54 @@
     <t xml:space="preserve">2025M11</t>
   </si>
   <si>
+    <t xml:space="preserve">DMV-2025-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private sector jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs-private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal government jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs-federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial bankruptcy rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business-bankruptcy-rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business bankruptcy cases filed per 100,000 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative Office of the United States Courts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling 12-month total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolling-12-sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025Q1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DMV-2026-02-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Private sector jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs-private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal government jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs-federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial bankruptcy rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business-bankruptcy-rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business bankruptcy cases filed per 100,000 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative Office of the United States Courts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolling 12-month total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolling-12-sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025Q1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Federal obligations</t>
   </si>
   <si>
@@ -204,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMV-2025-12-11</t>
   </si>
   <si>
     <t xml:space="preserve">Resident spending</t>
@@ -1316,7 +1316,7 @@
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1327,28 +1327,28 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1377,28 +1377,28 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -1416,7 +1416,7 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1427,28 +1427,28 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -1466,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1477,28 +1477,28 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1510,13 +1510,13 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1548,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -1560,13 +1560,13 @@
         <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1816,7 +1816,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -1866,7 +1866,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -1916,7 +1916,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -1966,7 +1966,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -2036,7 +2036,7 @@
         <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>111</v>
@@ -2048,7 +2048,7 @@
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -2066,7 +2066,7 @@
         <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -2116,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -2148,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -2166,7 +2166,7 @@
         <v>125</v>
       </c>
       <c r="P22" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2216,7 +2216,7 @@
         <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2266,7 +2266,7 @@
         <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -2316,7 +2316,7 @@
         <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -2348,7 +2348,7 @@
         <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -2360,13 +2360,13 @@
         <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P26" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2416,7 +2416,7 @@
         <v>30</v>
       </c>
       <c r="P27" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -2448,7 +2448,7 @@
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -2460,13 +2460,13 @@
         <v>28</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2510,13 +2510,13 @@
         <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P29" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2566,7 +2566,7 @@
         <v>125</v>
       </c>
       <c r="P30" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2610,13 +2610,13 @@
         <v>72</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P31" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -2648,7 +2648,7 @@
         <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
@@ -2660,13 +2660,13 @@
         <v>72</v>
       </c>
       <c r="N32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2698,7 +2698,7 @@
         <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
@@ -2710,13 +2710,13 @@
         <v>177</v>
       </c>
       <c r="N33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P33" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -2766,7 +2766,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
@@ -2816,7 +2816,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
@@ -2866,7 +2866,7 @@
         <v>95</v>
       </c>
       <c r="P36" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
@@ -2916,7 +2916,7 @@
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -2966,7 +2966,7 @@
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -3016,7 +3016,7 @@
         <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -3066,7 +3066,7 @@
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -3116,7 +3116,7 @@
         <v>208</v>
       </c>
       <c r="P41" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -3166,7 +3166,7 @@
         <v>213</v>
       </c>
       <c r="P42" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -3216,7 +3216,7 @@
         <v>222</v>
       </c>
       <c r="P43" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -3266,7 +3266,7 @@
         <v>222</v>
       </c>
       <c r="P44" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -3316,7 +3316,7 @@
         <v>222</v>
       </c>
       <c r="P45" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
@@ -3366,7 +3366,7 @@
         <v>222</v>
       </c>
       <c r="P46" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
@@ -3416,7 +3416,7 @@
         <v>222</v>
       </c>
       <c r="P47" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -3466,7 +3466,7 @@
         <v>222</v>
       </c>
       <c r="P48" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -3516,7 +3516,7 @@
         <v>222</v>
       </c>
       <c r="P49" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
@@ -3566,7 +3566,7 @@
         <v>222</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -3616,7 +3616,7 @@
         <v>222</v>
       </c>
       <c r="P51" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/input-data/metadata.xlsx
+++ b/input-data/metadata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t xml:space="preserve">topic.name</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMV-2026-02-07</t>
   </si>
   <si>
     <t xml:space="preserve">Federal obligations</t>
@@ -1316,7 +1313,7 @@
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1327,28 +1324,28 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -1366,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1377,28 +1374,28 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
         <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -1416,7 +1413,7 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1427,28 +1424,28 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
       <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -1466,7 +1463,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1477,28 +1474,28 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1510,10 +1507,10 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
         <v>63</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
       </c>
       <c r="P9" t="s">
         <v>31</v>
@@ -1527,43 +1524,43 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
       </c>
       <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" t="s">
         <v>71</v>
       </c>
-      <c r="M10" t="s">
-        <v>72</v>
-      </c>
       <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
         <v>63</v>
-      </c>
-      <c r="O10" t="s">
-        <v>64</v>
       </c>
       <c r="P10" t="s">
         <v>31</v>
@@ -1571,43 +1568,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
         <v>78</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
       <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
       <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
       </c>
       <c r="N11" t="s">
         <v>29</v>
@@ -1621,43 +1618,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
         <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
       <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
       <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
         <v>71</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
       </c>
       <c r="N12" t="s">
         <v>29</v>
@@ -1671,43 +1668,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
         <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
       <c r="L13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
         <v>71</v>
-      </c>
-      <c r="M13" t="s">
-        <v>72</v>
       </c>
       <c r="N13" t="s">
         <v>29</v>
@@ -1721,43 +1718,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
         <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
       <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="s">
-        <v>81</v>
-      </c>
       <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
         <v>71</v>
-      </c>
-      <c r="M14" t="s">
-        <v>72</v>
       </c>
       <c r="N14" t="s">
         <v>29</v>
@@ -1771,28 +1768,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>89</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>91</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
@@ -1804,45 +1801,45 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" t="s">
         <v>71</v>
       </c>
-      <c r="M15" t="s">
-        <v>72</v>
-      </c>
       <c r="N15" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" t="s">
         <v>94</v>
       </c>
-      <c r="O15" t="s">
-        <v>95</v>
-      </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
       <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
       <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
         <v>96</v>
-      </c>
-      <c r="H16" t="s">
-        <v>97</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -1854,45 +1851,45 @@
         <v>26</v>
       </c>
       <c r="L16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
         <v>71</v>
       </c>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
       <c r="N16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" t="s">
         <v>94</v>
       </c>
-      <c r="O16" t="s">
-        <v>95</v>
-      </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
       <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
         <v>98</v>
-      </c>
-      <c r="H17" t="s">
-        <v>99</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1904,45 +1901,45 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" t="s">
         <v>71</v>
       </c>
-      <c r="M17" t="s">
-        <v>72</v>
-      </c>
       <c r="N17" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" t="s">
         <v>94</v>
       </c>
-      <c r="O17" t="s">
-        <v>95</v>
-      </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
       <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
         <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
@@ -1954,45 +1951,45 @@
         <v>26</v>
       </c>
       <c r="L18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" t="s">
         <v>71</v>
       </c>
-      <c r="M18" t="s">
-        <v>72</v>
-      </c>
       <c r="N18" t="s">
+        <v>93</v>
+      </c>
+      <c r="O18" t="s">
         <v>94</v>
       </c>
-      <c r="O18" t="s">
-        <v>95</v>
-      </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>103</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
       <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
         <v>102</v>
-      </c>
-      <c r="H19" t="s">
-        <v>103</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
@@ -2016,39 +2013,39 @@
         <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>108</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>109</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
         <v>110</v>
       </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>111</v>
-      </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -2066,33 +2063,33 @@
         <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
       <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
         <v>112</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>113</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>114</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>115</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>116</v>
-      </c>
-      <c r="H21" t="s">
-        <v>117</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
@@ -2116,39 +2113,39 @@
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
       <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
         <v>118</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>119</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>120</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>121</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>122</v>
-      </c>
-      <c r="H22" t="s">
-        <v>123</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -2160,10 +2157,10 @@
         <v>43</v>
       </c>
       <c r="N22" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" t="s">
         <v>124</v>
-      </c>
-      <c r="O22" t="s">
-        <v>125</v>
       </c>
       <c r="P22" t="s">
         <v>31</v>
@@ -2171,28 +2168,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
         <v>106</v>
       </c>
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
       <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>120</v>
       </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
       <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
         <v>126</v>
-      </c>
-      <c r="H23" t="s">
-        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -2210,10 +2207,10 @@
         <v>43</v>
       </c>
       <c r="N23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O23" t="s">
         <v>124</v>
-      </c>
-      <c r="O23" t="s">
-        <v>125</v>
       </c>
       <c r="P23" t="s">
         <v>31</v>
@@ -2221,37 +2218,37 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
         <v>128</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>130</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>131</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>132</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>134</v>
-      </c>
-      <c r="H24" t="s">
-        <v>135</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
         <v>27</v>
@@ -2266,42 +2263,42 @@
         <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>129</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>131</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>132</v>
       </c>
-      <c r="F25" t="s">
-        <v>133</v>
-      </c>
       <c r="G25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" t="s">
         <v>137</v>
-      </c>
-      <c r="H25" t="s">
-        <v>138</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s">
         <v>27</v>
@@ -2316,39 +2313,39 @@
         <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="B26" t="s">
-        <v>129</v>
-      </c>
       <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
         <v>139</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>140</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>141</v>
       </c>
-      <c r="F26" t="s">
-        <v>142</v>
-      </c>
       <c r="G26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" t="s">
         <v>139</v>
-      </c>
-      <c r="H26" t="s">
-        <v>140</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -2360,10 +2357,10 @@
         <v>28</v>
       </c>
       <c r="N26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26" t="s">
         <v>63</v>
-      </c>
-      <c r="O26" t="s">
-        <v>64</v>
       </c>
       <c r="P26" t="s">
         <v>31</v>
@@ -2371,28 +2368,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
         <v>128</v>
       </c>
-      <c r="B27" t="s">
-        <v>129</v>
-      </c>
       <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
         <v>143</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>144</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>145</v>
       </c>
-      <c r="F27" t="s">
-        <v>146</v>
-      </c>
       <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" t="s">
         <v>143</v>
-      </c>
-      <c r="H27" t="s">
-        <v>144</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
@@ -2416,39 +2413,39 @@
         <v>30</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
         <v>128</v>
       </c>
-      <c r="B28" t="s">
-        <v>129</v>
-      </c>
       <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
         <v>147</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>148</v>
       </c>
-      <c r="E28" t="s">
-        <v>149</v>
-      </c>
       <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
         <v>146</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>147</v>
-      </c>
-      <c r="H28" t="s">
-        <v>148</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -2460,10 +2457,10 @@
         <v>28</v>
       </c>
       <c r="N28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" t="s">
         <v>63</v>
-      </c>
-      <c r="O28" t="s">
-        <v>64</v>
       </c>
       <c r="P28" t="s">
         <v>31</v>
@@ -2471,34 +2468,34 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>151</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>152</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>153</v>
       </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" t="s">
         <v>152</v>
-      </c>
-      <c r="H29" t="s">
-        <v>153</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>
@@ -2510,10 +2507,10 @@
         <v>28</v>
       </c>
       <c r="N29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" t="s">
         <v>63</v>
-      </c>
-      <c r="O29" t="s">
-        <v>64</v>
       </c>
       <c r="P29" t="s">
         <v>31</v>
@@ -2521,28 +2518,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
       <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
         <v>156</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>157</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>158</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" t="s">
-        <v>160</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
@@ -2560,10 +2557,10 @@
         <v>28</v>
       </c>
       <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" t="s">
         <v>124</v>
-      </c>
-      <c r="O30" t="s">
-        <v>125</v>
       </c>
       <c r="P30" t="s">
         <v>31</v>
@@ -2571,28 +2568,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
         <v>150</v>
       </c>
-      <c r="B31" t="s">
-        <v>151</v>
-      </c>
       <c r="C31" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" t="s">
         <v>161</v>
       </c>
-      <c r="D31" t="s">
-        <v>162</v>
-      </c>
       <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" t="s">
         <v>161</v>
-      </c>
-      <c r="F31" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" t="s">
-        <v>162</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
@@ -2604,16 +2601,16 @@
         <v>26</v>
       </c>
       <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="s">
         <v>71</v>
       </c>
-      <c r="M31" t="s">
-        <v>72</v>
-      </c>
       <c r="N31" t="s">
+        <v>62</v>
+      </c>
+      <c r="O31" t="s">
         <v>63</v>
-      </c>
-      <c r="O31" t="s">
-        <v>64</v>
       </c>
       <c r="P31" t="s">
         <v>31</v>
@@ -2621,49 +2618,49 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
         <v>150</v>
       </c>
-      <c r="B32" t="s">
-        <v>151</v>
-      </c>
       <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
         <v>163</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>164</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
         <v>165</v>
       </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>166</v>
-      </c>
-      <c r="H32" t="s">
-        <v>167</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
       </c>
       <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
         <v>71</v>
       </c>
-      <c r="M32" t="s">
-        <v>72</v>
-      </c>
       <c r="N32" t="s">
+        <v>62</v>
+      </c>
+      <c r="O32" t="s">
         <v>63</v>
-      </c>
-      <c r="O32" t="s">
-        <v>64</v>
       </c>
       <c r="P32" t="s">
         <v>31</v>
@@ -2671,49 +2668,49 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
         <v>168</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>169</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>170</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>171</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>172</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>173</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>174</v>
-      </c>
-      <c r="H33" t="s">
-        <v>175</v>
       </c>
       <c r="I33" t="s">
         <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
+        <v>175</v>
+      </c>
+      <c r="M33" t="s">
         <v>176</v>
       </c>
-      <c r="M33" t="s">
-        <v>177</v>
-      </c>
       <c r="N33" t="s">
+        <v>62</v>
+      </c>
+      <c r="O33" t="s">
         <v>63</v>
-      </c>
-      <c r="O33" t="s">
-        <v>64</v>
       </c>
       <c r="P33" t="s">
         <v>31</v>
@@ -2721,28 +2718,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
         <v>168</v>
       </c>
-      <c r="B34" t="s">
-        <v>169</v>
-      </c>
       <c r="C34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" t="s">
         <v>178</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>179</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>180</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>181</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>182</v>
-      </c>
-      <c r="H34" t="s">
-        <v>183</v>
       </c>
       <c r="I34" t="s">
         <v>24</v>
@@ -2760,39 +2757,39 @@
         <v>28</v>
       </c>
       <c r="N34" t="s">
+        <v>93</v>
+      </c>
+      <c r="O34" t="s">
         <v>94</v>
       </c>
-      <c r="O34" t="s">
-        <v>95</v>
-      </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s">
         <v>168</v>
       </c>
-      <c r="B35" t="s">
-        <v>169</v>
-      </c>
       <c r="C35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" t="s">
         <v>178</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>179</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>180</v>
       </c>
-      <c r="F35" t="s">
-        <v>181</v>
-      </c>
       <c r="G35" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" t="s">
         <v>184</v>
-      </c>
-      <c r="H35" t="s">
-        <v>185</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
@@ -2810,39 +2807,39 @@
         <v>28</v>
       </c>
       <c r="N35" t="s">
+        <v>93</v>
+      </c>
+      <c r="O35" t="s">
         <v>94</v>
       </c>
-      <c r="O35" t="s">
-        <v>95</v>
-      </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
         <v>168</v>
       </c>
-      <c r="B36" t="s">
-        <v>169</v>
-      </c>
       <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
         <v>178</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>179</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>180</v>
       </c>
-      <c r="F36" t="s">
-        <v>181</v>
-      </c>
       <c r="G36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" t="s">
         <v>186</v>
-      </c>
-      <c r="H36" t="s">
-        <v>187</v>
       </c>
       <c r="I36" t="s">
         <v>24</v>
@@ -2860,39 +2857,39 @@
         <v>28</v>
       </c>
       <c r="N36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O36" t="s">
         <v>94</v>
       </c>
-      <c r="O36" t="s">
-        <v>95</v>
-      </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
         <v>188</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>189</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>190</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>191</v>
-      </c>
-      <c r="E37" t="s">
-        <v>192</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" t="s">
         <v>190</v>
-      </c>
-      <c r="H37" t="s">
-        <v>191</v>
       </c>
       <c r="I37" t="s">
         <v>40</v>
@@ -2916,42 +2913,42 @@
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
         <v>188</v>
       </c>
-      <c r="B38" t="s">
-        <v>189</v>
-      </c>
       <c r="C38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" t="s">
         <v>193</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>194</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>195</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>196</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>197</v>
-      </c>
-      <c r="H38" t="s">
-        <v>198</v>
       </c>
       <c r="I38" t="s">
         <v>40</v>
       </c>
       <c r="J38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s">
         <v>80</v>
-      </c>
-      <c r="K38" t="s">
-        <v>81</v>
       </c>
       <c r="L38" t="s">
         <v>27</v>
@@ -2971,37 +2968,37 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" t="s">
         <v>188</v>
       </c>
-      <c r="B39" t="s">
-        <v>189</v>
-      </c>
       <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" t="s">
         <v>193</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>194</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>195</v>
       </c>
-      <c r="F39" t="s">
-        <v>196</v>
-      </c>
       <c r="G39" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" t="s">
         <v>199</v>
-      </c>
-      <c r="H39" t="s">
-        <v>200</v>
       </c>
       <c r="I39" t="s">
         <v>40</v>
       </c>
       <c r="J39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s">
         <v>80</v>
-      </c>
-      <c r="K39" t="s">
-        <v>81</v>
       </c>
       <c r="L39" t="s">
         <v>27</v>
@@ -3021,37 +3018,37 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
         <v>188</v>
       </c>
-      <c r="B40" t="s">
-        <v>189</v>
-      </c>
       <c r="C40" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" t="s">
         <v>193</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>194</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>195</v>
       </c>
-      <c r="F40" t="s">
-        <v>196</v>
-      </c>
       <c r="G40" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" t="s">
         <v>201</v>
-      </c>
-      <c r="H40" t="s">
-        <v>202</v>
       </c>
       <c r="I40" t="s">
         <v>40</v>
       </c>
       <c r="J40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s">
         <v>80</v>
-      </c>
-      <c r="K40" t="s">
-        <v>81</v>
       </c>
       <c r="L40" t="s">
         <v>27</v>
@@ -3071,28 +3068,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
         <v>188</v>
       </c>
-      <c r="B41" t="s">
-        <v>189</v>
-      </c>
       <c r="C41" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" t="s">
         <v>203</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>204</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>205</v>
       </c>
-      <c r="F41" t="s">
-        <v>206</v>
-      </c>
       <c r="G41" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" t="s">
         <v>203</v>
-      </c>
-      <c r="H41" t="s">
-        <v>204</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
@@ -3110,10 +3107,10 @@
         <v>28</v>
       </c>
       <c r="N41" t="s">
+        <v>206</v>
+      </c>
+      <c r="O41" t="s">
         <v>207</v>
-      </c>
-      <c r="O41" t="s">
-        <v>208</v>
       </c>
       <c r="P41" t="s">
         <v>31</v>
@@ -3121,28 +3118,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" t="s">
-        <v>189</v>
-      </c>
       <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
         <v>209</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>210</v>
       </c>
-      <c r="E42" t="s">
-        <v>211</v>
-      </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" t="s">
         <v>209</v>
-      </c>
-      <c r="H42" t="s">
-        <v>210</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
@@ -3160,10 +3157,10 @@
         <v>28</v>
       </c>
       <c r="N42" t="s">
+        <v>211</v>
+      </c>
+      <c r="O42" t="s">
         <v>212</v>
-      </c>
-      <c r="O42" t="s">
-        <v>213</v>
       </c>
       <c r="P42" t="s">
         <v>31</v>
@@ -3171,37 +3168,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
         <v>214</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>215</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>216</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>217</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>218</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" t="s">
+        <v>216</v>
+      </c>
+      <c r="I43" t="s">
         <v>219</v>
-      </c>
-      <c r="G43" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" t="s">
-        <v>220</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L43" t="s">
         <v>27</v>
@@ -3210,10 +3207,10 @@
         <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P43" t="s">
         <v>31</v>
@@ -3221,37 +3218,37 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
         <v>214</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>215</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>216</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>217</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>218</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" t="s">
         <v>219</v>
       </c>
-      <c r="G44" t="s">
-        <v>223</v>
-      </c>
-      <c r="H44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" t="s">
         <v>220</v>
-      </c>
-      <c r="J44" t="s">
-        <v>136</v>
-      </c>
-      <c r="K44" t="s">
-        <v>221</v>
       </c>
       <c r="L44" t="s">
         <v>27</v>
@@ -3260,48 +3257,48 @@
         <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
         <v>214</v>
       </c>
-      <c r="B45" t="s">
-        <v>215</v>
-      </c>
       <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" t="s">
         <v>225</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>226</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>218</v>
+      </c>
+      <c r="G45" t="s">
         <v>227</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
+        <v>228</v>
+      </c>
+      <c r="I45" t="s">
         <v>219</v>
       </c>
-      <c r="G45" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" t="s">
-        <v>229</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" t="s">
         <v>220</v>
-      </c>
-      <c r="J45" t="s">
-        <v>136</v>
-      </c>
-      <c r="K45" t="s">
-        <v>221</v>
       </c>
       <c r="L45" t="s">
         <v>27</v>
@@ -3310,48 +3307,48 @@
         <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P45" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
         <v>214</v>
       </c>
-      <c r="B46" t="s">
-        <v>215</v>
-      </c>
       <c r="C46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46" t="s">
         <v>225</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>226</v>
       </c>
-      <c r="E46" t="s">
-        <v>227</v>
-      </c>
       <c r="F46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" t="s">
         <v>219</v>
       </c>
-      <c r="G46" t="s">
-        <v>230</v>
-      </c>
-      <c r="H46" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" t="s">
         <v>220</v>
-      </c>
-      <c r="J46" t="s">
-        <v>136</v>
-      </c>
-      <c r="K46" t="s">
-        <v>221</v>
       </c>
       <c r="L46" t="s">
         <v>27</v>
@@ -3360,48 +3357,48 @@
         <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P46" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
         <v>214</v>
       </c>
-      <c r="B47" t="s">
-        <v>215</v>
-      </c>
       <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" t="s">
         <v>225</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>226</v>
       </c>
-      <c r="E47" t="s">
-        <v>227</v>
-      </c>
       <c r="F47" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" t="s">
+        <v>232</v>
+      </c>
+      <c r="I47" t="s">
         <v>219</v>
       </c>
-      <c r="G47" t="s">
-        <v>232</v>
-      </c>
-      <c r="H47" t="s">
-        <v>233</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" t="s">
         <v>220</v>
-      </c>
-      <c r="J47" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" t="s">
-        <v>221</v>
       </c>
       <c r="L47" t="s">
         <v>27</v>
@@ -3410,48 +3407,48 @@
         <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P47" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
         <v>214</v>
       </c>
-      <c r="B48" t="s">
-        <v>215</v>
-      </c>
       <c r="C48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" t="s">
         <v>225</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>226</v>
       </c>
-      <c r="E48" t="s">
-        <v>227</v>
-      </c>
       <c r="F48" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" t="s">
+        <v>234</v>
+      </c>
+      <c r="I48" t="s">
         <v>219</v>
       </c>
-      <c r="G48" t="s">
-        <v>234</v>
-      </c>
-      <c r="H48" t="s">
-        <v>235</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" t="s">
         <v>220</v>
-      </c>
-      <c r="J48" t="s">
-        <v>136</v>
-      </c>
-      <c r="K48" t="s">
-        <v>221</v>
       </c>
       <c r="L48" t="s">
         <v>27</v>
@@ -3460,48 +3457,48 @@
         <v>28</v>
       </c>
       <c r="N48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P48" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" t="s">
         <v>214</v>
       </c>
-      <c r="B49" t="s">
-        <v>215</v>
-      </c>
       <c r="C49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" t="s">
         <v>225</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>226</v>
       </c>
-      <c r="E49" t="s">
-        <v>227</v>
-      </c>
       <c r="F49" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" t="s">
         <v>219</v>
       </c>
-      <c r="G49" t="s">
-        <v>236</v>
-      </c>
-      <c r="H49" t="s">
-        <v>237</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
+        <v>135</v>
+      </c>
+      <c r="K49" t="s">
         <v>220</v>
-      </c>
-      <c r="J49" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49" t="s">
-        <v>221</v>
       </c>
       <c r="L49" t="s">
         <v>27</v>
@@ -3510,48 +3507,48 @@
         <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" t="s">
         <v>214</v>
       </c>
-      <c r="B50" t="s">
-        <v>215</v>
-      </c>
       <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" t="s">
         <v>225</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>226</v>
       </c>
-      <c r="E50" t="s">
-        <v>227</v>
-      </c>
       <c r="F50" t="s">
+        <v>218</v>
+      </c>
+      <c r="G50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" t="s">
         <v>219</v>
       </c>
-      <c r="G50" t="s">
-        <v>238</v>
-      </c>
-      <c r="H50" t="s">
-        <v>239</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
+        <v>135</v>
+      </c>
+      <c r="K50" t="s">
         <v>220</v>
-      </c>
-      <c r="J50" t="s">
-        <v>136</v>
-      </c>
-      <c r="K50" t="s">
-        <v>221</v>
       </c>
       <c r="L50" t="s">
         <v>27</v>
@@ -3560,48 +3557,48 @@
         <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s">
         <v>214</v>
       </c>
-      <c r="B51" t="s">
-        <v>215</v>
-      </c>
       <c r="C51" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" t="s">
         <v>225</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>226</v>
       </c>
-      <c r="E51" t="s">
-        <v>227</v>
-      </c>
       <c r="F51" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" t="s">
+        <v>239</v>
+      </c>
+      <c r="H51" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" t="s">
         <v>219</v>
       </c>
-      <c r="G51" t="s">
-        <v>240</v>
-      </c>
-      <c r="H51" t="s">
-        <v>241</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
+        <v>135</v>
+      </c>
+      <c r="K51" t="s">
         <v>220</v>
-      </c>
-      <c r="J51" t="s">
-        <v>136</v>
-      </c>
-      <c r="K51" t="s">
-        <v>221</v>
       </c>
       <c r="L51" t="s">
         <v>27</v>
@@ -3610,13 +3607,13 @@
         <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/input-data/metadata.xlsx
+++ b/input-data/metadata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">topic.name</t>
   </si>
@@ -107,49 +107,52 @@
     <t xml:space="preserve">2025M11</t>
   </si>
   <si>
+    <t xml:space="preserve">DMV-2025-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private sector jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs-private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal government jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs-federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial bankruptcy rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business-bankruptcy-rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business bankruptcy cases filed per 100,000 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative Office of the United States Courts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling 12-month total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolling-12-sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025Q1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DMV-2025-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private sector jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs-private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal government jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs-federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial bankruptcy rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business-bankruptcy-rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business bankruptcy cases filed per 100,000 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative Office of the United States Courts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolling 12-month total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolling-12-sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025Q1</t>
   </si>
   <si>
     <t xml:space="preserve">Federal obligations</t>
@@ -1313,7 +1316,7 @@
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1324,28 +1327,28 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -1363,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1374,28 +1377,28 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
@@ -1413,7 +1416,7 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1424,28 +1427,28 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
@@ -1463,7 +1466,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1474,28 +1477,28 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1507,13 +1510,13 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1524,87 +1527,87 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
         <v>29</v>
@@ -1618,43 +1621,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N12" t="s">
         <v>29</v>
@@ -1668,43 +1671,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
         <v>29</v>
@@ -1718,43 +1721,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
         <v>29</v>
@@ -1768,28 +1771,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
@@ -1801,45 +1804,45 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -1851,45 +1854,45 @@
         <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1901,45 +1904,45 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
@@ -1951,45 +1954,45 @@
         <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
         <v>102</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" t="s">
-        <v>102</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
@@ -2013,39 +2016,39 @@
         <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
         <v>109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" t="s">
-        <v>108</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
         <v>26</v>
@@ -2063,33 +2066,33 @@
         <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
@@ -2113,39 +2116,39 @@
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
         <v>26</v>
@@ -2157,39 +2160,39 @@
         <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P22" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -2207,48 +2210,48 @@
         <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P23" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" t="s">
         <v>27</v>
@@ -2263,42 +2266,42 @@
         <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L25" t="s">
         <v>27</v>
@@ -2313,39 +2316,39 @@
         <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
         <v>139</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>140</v>
-      </c>
-      <c r="F26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" t="s">
-        <v>139</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s">
         <v>26</v>
@@ -2357,39 +2360,39 @@
         <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P26" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" t="s">
         <v>143</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>144</v>
-      </c>
-      <c r="F27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" t="s">
-        <v>143</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
@@ -2413,39 +2416,39 @@
         <v>30</v>
       </c>
       <c r="P27" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
         <v>146</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>147</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>148</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" t="s">
-        <v>147</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s">
         <v>26</v>
@@ -2457,45 +2460,45 @@
         <v>28</v>
       </c>
       <c r="N28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P28" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" t="s">
         <v>152</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>153</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" t="s">
-        <v>152</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>
@@ -2507,39 +2510,39 @@
         <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P29" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" t="s">
         <v>156</v>
       </c>
-      <c r="E30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" t="s">
-        <v>155</v>
-      </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
@@ -2557,39 +2560,39 @@
         <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P30" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" t="s">
         <v>161</v>
       </c>
-      <c r="E31" t="s">
-        <v>160</v>
-      </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
@@ -2601,145 +2604,145 @@
         <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P31" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
         <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P32" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I33" t="s">
         <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P33" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I34" t="s">
         <v>24</v>
@@ -2757,39 +2760,39 @@
         <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
@@ -2807,39 +2810,39 @@
         <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I36" t="s">
         <v>24</v>
@@ -2857,39 +2860,39 @@
         <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P36" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I37" t="s">
         <v>40</v>
@@ -2913,42 +2916,42 @@
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I38" t="s">
         <v>40</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" t="s">
         <v>27</v>
@@ -2963,42 +2966,42 @@
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I39" t="s">
         <v>40</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" t="s">
         <v>27</v>
@@ -3013,42 +3016,42 @@
         <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I40" t="s">
         <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L40" t="s">
         <v>27</v>
@@ -3063,33 +3066,33 @@
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" t="s">
         <v>203</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>204</v>
-      </c>
-      <c r="F41" t="s">
-        <v>205</v>
-      </c>
-      <c r="G41" t="s">
-        <v>202</v>
-      </c>
-      <c r="H41" t="s">
-        <v>203</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
@@ -3107,39 +3110,39 @@
         <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P41" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42" t="s">
         <v>209</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
-      </c>
-      <c r="F42" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" t="s">
-        <v>208</v>
-      </c>
-      <c r="H42" t="s">
-        <v>209</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
@@ -3157,48 +3160,48 @@
         <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P42" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" t="s">
         <v>217</v>
       </c>
-      <c r="F43" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" t="s">
-        <v>217</v>
-      </c>
-      <c r="H43" t="s">
-        <v>216</v>
-      </c>
       <c r="I43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s">
         <v>27</v>
@@ -3207,48 +3210,48 @@
         <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P43" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s">
         <v>27</v>
@@ -3257,48 +3260,48 @@
         <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P44" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s">
         <v>27</v>
@@ -3307,48 +3310,48 @@
         <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P45" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s">
         <v>27</v>
@@ -3357,48 +3360,48 @@
         <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P46" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s">
         <v>27</v>
@@ -3407,48 +3410,48 @@
         <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P47" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s">
         <v>27</v>
@@ -3457,48 +3460,48 @@
         <v>28</v>
       </c>
       <c r="N48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P48" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s">
         <v>27</v>
@@ -3507,48 +3510,48 @@
         <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P49" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s">
         <v>27</v>
@@ -3557,48 +3560,48 @@
         <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P50" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s">
         <v>27</v>
@@ -3607,13 +3610,13 @@
         <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P51" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/input-data/metadata.xlsx
+++ b/input-data/metadata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t xml:space="preserve">topic.name</t>
   </si>
@@ -146,61 +146,331 @@
     <t xml:space="preserve">rolling-12-sum</t>
   </si>
   <si>
+    <t xml:space="preserve">2024Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMV-2026-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legally-binding funds committed to recipients through federally-awarded grants, contracts, loans, and cooperative agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USASpending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$123k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMV-2025-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations, grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations-grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations, contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations-contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpi-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indexed change in the price of a fixed basket of goods for urban consumers, indexed to 1984 levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident-spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spending at brick-and-mortar retailers by DMV residents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataFy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident spending, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident-spending-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling 3-month average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolling-3-mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor Market &amp; Workforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor-market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unempr-sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of labor force not currently employed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unempr-sa-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[00]%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pct_diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate, white workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unempr-sa-white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate, black workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unempr-sa-black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate, workers of color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unempr-sa-poc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job postings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique-postings-fte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of online job advertisements posted by employers, deduplicated for cross-posted listings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total job postings, full-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique-postings-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private sector job postings, full-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique-postings-private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public sector job postings, full-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique-postings-public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internship postings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique-postings-internships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass layoff notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warn-notices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notifications for closures or layoffs by qualified employers under the Worker Adjustment and Retraining Notification Act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarnTracker.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic research funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research-hd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations to institutions of higher education made for research-based grants, contracts, loans, and cooperative agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic research funding obligated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility patents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filed and granted applications for patents covering new inventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Patent and Trademark Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility patent applications filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patents-filed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venture capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venture-capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital investment in startup firms through seed rounds, individual “angel” contributions, or convertible notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crunchbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venture capital volume ($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venture-capital-volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venture capital deals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venture-capital-deals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Estate &amp; Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real-estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial occupancy rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial-occupancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of total square footage zoned as office or retail space that is currently occupied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoStar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupied office space (% SF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial-occupancy-office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[0]%</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024Q1</t>
   </si>
   <si>
     <t xml:space="preserve">2025Q1</t>
   </si>
   <si>
-    <t xml:space="preserve">DMV-2025-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legally-binding funds committed to recipients through federally-awarded grants, contracts, loans, and cooperative agreements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USASpending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations, total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$123k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations, grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations-grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations, contracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations-contracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpi-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indexed change in the price of a fixed basket of goods for urban consumers, indexed to 1984 levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Bureau of Labor Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[00]</t>
+    <t xml:space="preserve">Occupied retail space (% SF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commercial-occupancy-retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observed rental index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rent-index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zillow observed rental index (ZORI), all homes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zillow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active residential for-sale listings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active-listings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of for-sale residential listings on the market in a given month, excluding those pending sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtor.com Economic Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median residential listing price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median-listing-price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median price of for-sale residential listings on the market in a given month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destination &amp; Travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destination-travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel revenue per available room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotel-revpar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel revenue generated by available rooms/units over a given period, whether or not they are occupied </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$0.[00]</t>
   </si>
   <si>
     <t xml:space="preserve">2024M9</t>
@@ -209,91 +479,19 @@
     <t xml:space="preserve">2025M9</t>
   </si>
   <si>
-    <t xml:space="preserve">Resident spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident-spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spending at brick-and-mortar retailers by DMV residents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataFy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident spending, total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident-spending-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolling 3-month average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolling-3-mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor Market &amp; Workforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labor-market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unempr-sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of labor force not currently employed  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate, total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unempr-sa-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[00]%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pct_diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate, white workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unempr-sa-white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate, black workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unempr-sa-black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate, workers of color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unempr-sa-poc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job postings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique-postings-fte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of online job advertisements posted by employers, deduplicated for cross-posted listings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total job postings, full-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique-postings-total</t>
+    <t xml:space="preserve">Total air passengers served</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air-travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total passengers enplaned and deplaned on scheduled services at airports in a given market, excluding connecting flights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Bureau of Transportation Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air-passengers</t>
   </si>
   <si>
     <t xml:space="preserve">2024M10</t>
@@ -302,201 +500,6 @@
     <t xml:space="preserve">2025M10</t>
   </si>
   <si>
-    <t xml:space="preserve">Private sector job postings, full-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique-postings-private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public sector job postings, full-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique-postings-public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internship postings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique-postings-internships</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass layoff notifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warn-notices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notifications for closures or layoffs by qualified employers under the Worker Adjustment and Retraining Notification Act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WarnTracker.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">innovation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic research funding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">research-hd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations to institutions of higher education made for research-based grants, contracts, loans, and cooperative agreements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic research funding obligated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility patents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filed and granted applications for patents covering new inventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Patent and Trademark Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility patent applications filed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patents-filed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venture capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venture-capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital investment in startup firms through seed rounds, individual “angel” contributions, or convertible notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crunchbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venture capital volume ($)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venture-capital-volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venture capital deals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">venture-capital-deals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real Estate &amp; Housing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">real-estate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial occupancy rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commercial-occupancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of total square footage zoned as office or retail space that is currently occupied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoStar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupied office space (% SF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commercial-occupancy-office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[0]%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupied retail space (% SF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commercial-occupancy-retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observed rental index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rent-index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zillow observed rental index (ZORI), all homes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zillow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active residential for-sale listings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active-listings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of for-sale residential listings on the market in a given month, excluding those pending sale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realtor.com Economic Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median residential listing price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median-listing-price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median price of for-sale residential listings on the market in a given month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination &amp; Travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">destination-travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel revenue per available room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hotel-revpar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hotel revenue generated by available rooms/units over a given period, whether or not they are occupied </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$0.[00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total air passengers served</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air-travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total passengers enplaned and deplaned on scheduled services at airports in a given market, excluding connecting flights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Bureau of Transportation Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air-passengers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Overnight visitors</t>
   </si>
   <si>
@@ -635,12 +638,6 @@
     <t xml:space="preserve">State agency reporting</t>
   </si>
   <si>
-    <t xml:space="preserve">2024M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025M7</t>
-  </si>
-  <si>
     <t xml:space="preserve">SNAP participation</t>
   </si>
   <si>
@@ -648,12 +645,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total number of individuals participating in state-offered Supplemental Nutrition Assistance Program (SNAP) services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025M6</t>
   </si>
   <si>
     <t xml:space="preserve">About the DMV</t>
@@ -1366,7 +1357,7 @@
         <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -1389,10 +1380,10 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
@@ -1416,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1439,10 +1430,10 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -1466,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1477,28 +1468,28 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1510,10 +1501,10 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
         <v>46</v>
@@ -1527,22 +1518,22 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -1554,16 +1545,16 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" t="s">
         <v>71</v>
       </c>
-      <c r="M10" t="s">
-        <v>72</v>
-      </c>
       <c r="N10" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
         <v>46</v>
@@ -1571,43 +1562,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
         <v>78</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
       <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
         <v>80</v>
       </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
       <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
       </c>
       <c r="N11" t="s">
         <v>29</v>
@@ -1621,43 +1612,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>75</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
         <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>83</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
       <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
         <v>80</v>
       </c>
-      <c r="K12" t="s">
-        <v>81</v>
-      </c>
       <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
         <v>71</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
       </c>
       <c r="N12" t="s">
         <v>29</v>
@@ -1671,43 +1662,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
         <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>85</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
         <v>80</v>
       </c>
-      <c r="K13" t="s">
-        <v>81</v>
-      </c>
       <c r="L13" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" t="s">
         <v>71</v>
-      </c>
-      <c r="M13" t="s">
-        <v>72</v>
       </c>
       <c r="N13" t="s">
         <v>29</v>
@@ -1721,43 +1712,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
         <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>87</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
       <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
         <v>80</v>
       </c>
-      <c r="K14" t="s">
-        <v>81</v>
-      </c>
       <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
         <v>71</v>
-      </c>
-      <c r="M14" t="s">
-        <v>72</v>
       </c>
       <c r="N14" t="s">
         <v>29</v>
@@ -1771,28 +1762,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>89</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>90</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>91</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
@@ -1804,16 +1795,16 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" t="s">
         <v>71</v>
       </c>
-      <c r="M15" t="s">
-        <v>72</v>
-      </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
         <v>46</v>
@@ -1821,28 +1812,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
       <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -1854,16 +1845,16 @@
         <v>26</v>
       </c>
       <c r="L16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" t="s">
         <v>71</v>
       </c>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
       <c r="N16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
         <v>46</v>
@@ -1871,28 +1862,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
       <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1904,16 +1895,16 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" t="s">
         <v>71</v>
       </c>
-      <c r="M17" t="s">
-        <v>72</v>
-      </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P17" t="s">
         <v>46</v>
@@ -1921,28 +1912,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
       <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
@@ -1954,16 +1945,16 @@
         <v>26</v>
       </c>
       <c r="L18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" t="s">
         <v>71</v>
       </c>
-      <c r="M18" t="s">
-        <v>72</v>
-      </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O18" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
         <v>46</v>
@@ -1971,28 +1962,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
       <c r="C19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" t="s">
-        <v>105</v>
-      </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
@@ -2016,33 +2007,33 @@
         <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
@@ -2066,33 +2057,33 @@
         <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
         <v>112</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>113</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" t="s">
-        <v>117</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
@@ -2116,33 +2107,33 @@
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
         <v>118</v>
       </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" t="s">
-        <v>123</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
@@ -2160,10 +2151,10 @@
         <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="P22" t="s">
         <v>46</v>
@@ -2171,28 +2162,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>121</v>
       </c>
-      <c r="G23" t="s">
-        <v>126</v>
-      </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -2210,10 +2201,10 @@
         <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="P23" t="s">
         <v>46</v>
@@ -2221,37 +2212,37 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
         <v>128</v>
       </c>
-      <c r="B24" t="s">
+      <c r="G24" t="s">
         <v>129</v>
       </c>
-      <c r="C24" t="s">
+      <c r="H24" t="s">
         <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" t="s">
-        <v>135</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
         <v>27</v>
@@ -2260,48 +2251,48 @@
         <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
         <v>128</v>
       </c>
-      <c r="B25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>133</v>
-      </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L25" t="s">
         <v>27</v>
@@ -2310,39 +2301,39 @@
         <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
         <v>139</v>
       </c>
-      <c r="D26" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" t="s">
-        <v>142</v>
-      </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
@@ -2360,10 +2351,10 @@
         <v>28</v>
       </c>
       <c r="N26" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O26" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="P26" t="s">
         <v>46</v>
@@ -2371,28 +2362,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
         <v>143</v>
       </c>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" t="s">
-        <v>146</v>
-      </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
@@ -2416,33 +2407,33 @@
         <v>30</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
@@ -2460,10 +2451,10 @@
         <v>28</v>
       </c>
       <c r="N28" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O28" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="P28" t="s">
         <v>46</v>
@@ -2471,34 +2462,34 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
         <v>151</v>
       </c>
-      <c r="C29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>
@@ -2510,39 +2501,39 @@
         <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="O29" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
         <v>156</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>157</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>158</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" t="s">
-        <v>160</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
@@ -2560,10 +2551,10 @@
         <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="P30" t="s">
         <v>46</v>
@@ -2571,28 +2562,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" t="s">
         <v>162</v>
       </c>
-      <c r="E31" t="s">
-        <v>161</v>
-      </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
@@ -2604,16 +2595,16 @@
         <v>26</v>
       </c>
       <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="s">
         <v>71</v>
       </c>
-      <c r="M31" t="s">
-        <v>72</v>
-      </c>
       <c r="N31" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O31" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="P31" t="s">
         <v>46</v>
@@ -2621,28 +2612,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
@@ -2654,16 +2645,16 @@
         <v>26</v>
       </c>
       <c r="L32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" t="s">
         <v>71</v>
       </c>
-      <c r="M32" t="s">
-        <v>72</v>
-      </c>
       <c r="N32" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O32" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s">
         <v>46</v>
@@ -2671,49 +2662,49 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
         <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N33" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="P33" t="s">
         <v>46</v>
@@ -2721,28 +2712,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
         <v>24</v>
@@ -2760,10 +2751,10 @@
         <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O34" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P34" t="s">
         <v>46</v>
@@ -2771,28 +2762,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
@@ -2810,10 +2801,10 @@
         <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O35" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P35" t="s">
         <v>46</v>
@@ -2821,28 +2812,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I36" t="s">
         <v>24</v>
@@ -2860,10 +2851,10 @@
         <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="O36" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P36" t="s">
         <v>46</v>
@@ -2871,28 +2862,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
         <v>40</v>
@@ -2921,37 +2912,37 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I38" t="s">
         <v>40</v>
       </c>
       <c r="J38" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" t="s">
         <v>80</v>
-      </c>
-      <c r="K38" t="s">
-        <v>81</v>
       </c>
       <c r="L38" t="s">
         <v>27</v>
@@ -2960,48 +2951,48 @@
         <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="P38" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I39" t="s">
         <v>40</v>
       </c>
       <c r="J39" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" t="s">
         <v>80</v>
-      </c>
-      <c r="K39" t="s">
-        <v>81</v>
       </c>
       <c r="L39" t="s">
         <v>27</v>
@@ -3010,48 +3001,48 @@
         <v>28</v>
       </c>
       <c r="N39" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I40" t="s">
         <v>40</v>
       </c>
       <c r="J40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" t="s">
         <v>80</v>
-      </c>
-      <c r="K40" t="s">
-        <v>81</v>
       </c>
       <c r="L40" t="s">
         <v>27</v>
@@ -3060,39 +3051,39 @@
         <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>205</v>
-      </c>
-      <c r="F41" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" t="s">
-        <v>203</v>
-      </c>
-      <c r="H41" t="s">
-        <v>204</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
@@ -3110,10 +3101,10 @@
         <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="O41" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="P41" t="s">
         <v>46</v>
@@ -3121,28 +3112,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
         <v>209</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>210</v>
       </c>
-      <c r="E42" t="s">
-        <v>211</v>
-      </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" t="s">
         <v>209</v>
-      </c>
-      <c r="H42" t="s">
-        <v>210</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
@@ -3160,10 +3151,10 @@
         <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="O42" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="P42" t="s">
         <v>46</v>
@@ -3171,37 +3162,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" t="s">
         <v>214</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>215</v>
       </c>
-      <c r="C43" t="s">
+      <c r="F43" t="s">
         <v>216</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" t="s">
         <v>217</v>
-      </c>
-      <c r="E43" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" t="s">
-        <v>219</v>
-      </c>
-      <c r="G43" t="s">
-        <v>218</v>
-      </c>
-      <c r="H43" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" t="s">
-        <v>220</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s">
         <v>27</v>
@@ -3210,48 +3201,48 @@
         <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O43" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" t="s">
         <v>214</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>215</v>
       </c>
-      <c r="C44" t="s">
+      <c r="F44" t="s">
         <v>216</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" t="s">
         <v>217</v>
       </c>
-      <c r="E44" t="s">
+      <c r="J44" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" t="s">
         <v>218</v>
-      </c>
-      <c r="F44" t="s">
-        <v>219</v>
-      </c>
-      <c r="G44" t="s">
-        <v>223</v>
-      </c>
-      <c r="H44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I44" t="s">
-        <v>220</v>
-      </c>
-      <c r="J44" t="s">
-        <v>136</v>
-      </c>
-      <c r="K44" t="s">
-        <v>221</v>
       </c>
       <c r="L44" t="s">
         <v>27</v>
@@ -3260,48 +3251,48 @@
         <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" t="s">
+        <v>216</v>
+      </c>
+      <c r="G45" t="s">
         <v>225</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
         <v>226</v>
       </c>
-      <c r="E45" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" t="s">
-        <v>219</v>
-      </c>
-      <c r="G45" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" t="s">
-        <v>229</v>
-      </c>
       <c r="I45" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J45" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s">
         <v>27</v>
@@ -3310,48 +3301,48 @@
         <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O45" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P45" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" t="s">
         <v>227</v>
       </c>
-      <c r="F46" t="s">
-        <v>219</v>
-      </c>
-      <c r="G46" t="s">
-        <v>230</v>
-      </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I46" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L46" t="s">
         <v>27</v>
@@ -3360,48 +3351,48 @@
         <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P46" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F47" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I47" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J47" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s">
         <v>27</v>
@@ -3410,48 +3401,48 @@
         <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O47" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P47" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I48" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J48" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L48" t="s">
         <v>27</v>
@@ -3460,48 +3451,48 @@
         <v>28</v>
       </c>
       <c r="N48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P48" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H49" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s">
         <v>27</v>
@@ -3510,48 +3501,48 @@
         <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I50" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J50" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L50" t="s">
         <v>27</v>
@@ -3560,48 +3551,48 @@
         <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J51" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s">
         <v>27</v>
@@ -3610,13 +3601,13 @@
         <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/input-data/metadata.xlsx
+++ b/input-data/metadata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">topic.name</t>
   </si>
@@ -101,160 +101,169 @@
     <t xml:space="preserve">level</t>
   </si>
   <si>
+    <t xml:space="preserve">2024M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMV-2026-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private sector jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs-private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal government jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jobs-federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial bankruptcy rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business-bankruptcy-rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business bankruptcy cases filed per 100,000 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative Office of the United States Courts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling 12-month total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolling-12-sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMV-2026-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legally-binding funds committed to recipients through federally-awarded grants, contracts, loans, and cooperative agreements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USASpending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$123k</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024M11</t>
   </si>
   <si>
     <t xml:space="preserve">2025M11</t>
   </si>
   <si>
+    <t xml:space="preserve">DMV-2025-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations, grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations-grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal obligations, contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">federal-obligations-contracts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer prices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpi-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indexed change in the price of a fixed basket of goods for urban consumers, indexed to 1984 levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident-spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spending at brick-and-mortar retailers by DMV residents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataFy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident spending, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident-spending-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rolling 3-month average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rolling-3-mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor Market &amp; Workforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor-market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unempr-sa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of labor force not currently employed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unempr-sa-total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.[00]%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pct_diff</t>
+  </si>
+  <si>
     <t xml:space="preserve">DMV-2025-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private sector jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs-private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal government jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jobs-federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial bankruptcy rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business-bankruptcy-rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business bankruptcy cases filed per 100,000 people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative Office of the United States Courts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolling 12-month total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolling-12-sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMV-2026-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legally-binding funds committed to recipients through federally-awarded grants, contracts, loans, and cooperative agreements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USASpending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations, total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$123k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMV-2025-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations, grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations-grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal obligations, contracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">federal-obligations-contracts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer prices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpi-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indexed change in the price of a fixed basket of goods for urban consumers, indexed to 1984 levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Bureau of Labor Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[00]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident-spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spending at brick-and-mortar retailers by DMV residents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataFy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident spending, total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident-spending-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolling 3-month average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rolling-3-mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor Market &amp; Workforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labor-market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unempr-sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of labor force not currently employed  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unemployment rate, total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unempr-sa-total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.[00]%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pct_diff</t>
   </si>
   <si>
     <t xml:space="preserve">Unemployment rate, white workers</t>
@@ -1351,13 +1360,13 @@
         <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1389,10 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
@@ -1401,13 +1410,13 @@
         <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1430,10 +1439,10 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -1451,13 +1460,13 @@
         <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -1468,28 +1477,28 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -1507,7 +1516,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1518,22 +1527,22 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
@@ -1545,10 +1554,10 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
         <v>29</v>
@@ -1557,233 +1566,233 @@
         <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P13" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O14" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
@@ -1795,10 +1804,10 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
         <v>29</v>
@@ -1807,33 +1816,33 @@
         <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -1845,10 +1854,10 @@
         <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
         <v>29</v>
@@ -1857,33 +1866,33 @@
         <v>30</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -1895,10 +1904,10 @@
         <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
         <v>29</v>
@@ -1907,33 +1916,33 @@
         <v>30</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
@@ -1945,10 +1954,10 @@
         <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
         <v>29</v>
@@ -1957,33 +1966,33 @@
         <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" t="s">
-        <v>99</v>
-      </c>
       <c r="H19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
@@ -2001,39 +2010,39 @@
         <v>43</v>
       </c>
       <c r="N19" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
@@ -2051,39 +2060,39 @@
         <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
@@ -2107,33 +2116,33 @@
         <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
@@ -2151,10 +2160,10 @@
         <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P22" t="s">
         <v>46</v>
@@ -2162,28 +2171,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
@@ -2201,10 +2210,10 @@
         <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O23" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P23" t="s">
         <v>46</v>
@@ -2212,37 +2221,37 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L24" t="s">
         <v>27</v>
@@ -2251,48 +2260,48 @@
         <v>28</v>
       </c>
       <c r="N24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L25" t="s">
         <v>27</v>
@@ -2301,39 +2310,39 @@
         <v>28</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
         <v>139</v>
       </c>
-      <c r="G26" t="s">
-        <v>136</v>
-      </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
         <v>24</v>
@@ -2357,33 +2366,33 @@
         <v>30</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" t="s">
         <v>143</v>
       </c>
-      <c r="G27" t="s">
-        <v>140</v>
-      </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
@@ -2407,33 +2416,33 @@
         <v>30</v>
       </c>
       <c r="P27" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" t="s">
         <v>146</v>
       </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
@@ -2457,39 +2466,39 @@
         <v>30</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>
@@ -2501,39 +2510,39 @@
         <v>28</v>
       </c>
       <c r="N29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" t="s">
         <v>158</v>
       </c>
-      <c r="G30" t="s">
-        <v>155</v>
-      </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
@@ -2551,10 +2560,10 @@
         <v>28</v>
       </c>
       <c r="N30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P30" t="s">
         <v>46</v>
@@ -2562,28 +2571,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
@@ -2595,10 +2604,10 @@
         <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N31" t="s">
         <v>29</v>
@@ -2607,33 +2616,33 @@
         <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
@@ -2645,10 +2654,10 @@
         <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N32" t="s">
         <v>29</v>
@@ -2657,48 +2666,48 @@
         <v>30</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
         <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s">
         <v>29</v>
@@ -2707,33 +2716,33 @@
         <v>30</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I34" t="s">
         <v>24</v>
@@ -2751,10 +2760,10 @@
         <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O34" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P34" t="s">
         <v>46</v>
@@ -2762,28 +2771,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
@@ -2801,10 +2810,10 @@
         <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P35" t="s">
         <v>46</v>
@@ -2812,28 +2821,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I36" t="s">
         <v>24</v>
@@ -2851,10 +2860,10 @@
         <v>28</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O36" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P36" t="s">
         <v>46</v>
@@ -2862,28 +2871,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
         <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I37" t="s">
         <v>40</v>
@@ -2912,37 +2921,37 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I38" t="s">
         <v>40</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
         <v>27</v>
@@ -2951,48 +2960,48 @@
         <v>28</v>
       </c>
       <c r="N38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
         <v>40</v>
       </c>
       <c r="J39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
         <v>27</v>
@@ -3001,48 +3010,48 @@
         <v>28</v>
       </c>
       <c r="N39" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I40" t="s">
         <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s">
         <v>27</v>
@@ -3051,39 +3060,39 @@
         <v>28</v>
       </c>
       <c r="N40" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" t="s">
         <v>207</v>
       </c>
-      <c r="G41" t="s">
-        <v>204</v>
-      </c>
       <c r="H41" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
@@ -3101,10 +3110,10 @@
         <v>28</v>
       </c>
       <c r="N41" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P41" t="s">
         <v>46</v>
@@ -3112,28 +3121,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
         <v>210</v>
       </c>
-      <c r="F42" t="s">
-        <v>207</v>
-      </c>
       <c r="G42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H42" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
@@ -3151,10 +3160,10 @@
         <v>28</v>
       </c>
       <c r="N42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P42" t="s">
         <v>46</v>
@@ -3162,37 +3171,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I43" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J43" t="s">
         <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s">
         <v>27</v>
@@ -3201,48 +3210,48 @@
         <v>28</v>
       </c>
       <c r="N43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" t="s">
+        <v>224</v>
+      </c>
+      <c r="I44" t="s">
         <v>220</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
+        <v>134</v>
+      </c>
+      <c r="K44" t="s">
         <v>221</v>
-      </c>
-      <c r="I44" t="s">
-        <v>217</v>
-      </c>
-      <c r="J44" t="s">
-        <v>131</v>
-      </c>
-      <c r="K44" t="s">
-        <v>218</v>
       </c>
       <c r="L44" t="s">
         <v>27</v>
@@ -3251,48 +3260,48 @@
         <v>28</v>
       </c>
       <c r="N44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I45" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s">
         <v>27</v>
@@ -3301,48 +3310,48 @@
         <v>28</v>
       </c>
       <c r="N45" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O45" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F46" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G46" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H46" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s">
         <v>27</v>
@@ -3351,48 +3360,48 @@
         <v>28</v>
       </c>
       <c r="N46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O46" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F47" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G47" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I47" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K47" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s">
         <v>27</v>
@@ -3401,48 +3410,48 @@
         <v>28</v>
       </c>
       <c r="N47" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O47" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F48" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G48" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s">
         <v>27</v>
@@ -3451,48 +3460,48 @@
         <v>28</v>
       </c>
       <c r="N48" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O48" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I49" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s">
         <v>27</v>
@@ -3501,48 +3510,48 @@
         <v>28</v>
       </c>
       <c r="N49" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O49" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G50" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I50" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s">
         <v>27</v>
@@ -3551,48 +3560,48 @@
         <v>28</v>
       </c>
       <c r="N50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H51" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s">
         <v>27</v>
@@ -3601,13 +3610,13 @@
         <v>28</v>
       </c>
       <c r="N51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/input-data/metadata.xlsx
+++ b/input-data/metadata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t xml:space="preserve">topic.name</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t xml:space="preserve">DataFy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025M9</t>
   </si>
   <si>
     <t xml:space="preserve">Visitor spending</t>
@@ -2342,13 +2348,13 @@
         <v>80</v>
       </c>
       <c r="N26" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -2359,22 +2365,22 @@
         <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
         <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
         <v>36</v>
@@ -2392,54 +2398,54 @@
         <v>80</v>
       </c>
       <c r="N27" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="P27" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N28" t="s">
         <v>58</v>
@@ -2453,28 +2459,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I29" t="s">
         <v>36</v>
@@ -2503,28 +2509,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I30" t="s">
         <v>36</v>
@@ -2553,28 +2559,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I31" t="s">
         <v>36</v>
@@ -2609,22 +2615,22 @@
         <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" t="s">
         <v>166</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>167</v>
-      </c>
-      <c r="G32" t="s">
-        <v>164</v>
-      </c>
-      <c r="H32" t="s">
-        <v>165</v>
       </c>
       <c r="I32" t="s">
         <v>36</v>
@@ -2653,28 +2659,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" t="s">
         <v>172</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>173</v>
-      </c>
-      <c r="G33" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" t="s">
-        <v>171</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
@@ -2692,10 +2698,10 @@
         <v>114</v>
       </c>
       <c r="N33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P33" t="s">
         <v>29</v>
@@ -2703,28 +2709,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" t="s">
         <v>178</v>
       </c>
-      <c r="F34" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" t="s">
-        <v>176</v>
-      </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I34" t="s">
         <v>36</v>
@@ -2742,10 +2748,10 @@
         <v>114</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P34" t="s">
         <v>29</v>
@@ -2753,28 +2759,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -2792,10 +2798,10 @@
         <v>114</v>
       </c>
       <c r="N35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P35" t="s">
         <v>40</v>
@@ -2803,28 +2809,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -2842,10 +2848,10 @@
         <v>114</v>
       </c>
       <c r="N36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P36" t="s">
         <v>40</v>
@@ -2853,28 +2859,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -2892,10 +2898,10 @@
         <v>114</v>
       </c>
       <c r="N37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P37" t="s">
         <v>40</v>
@@ -2903,28 +2909,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -2959,22 +2965,22 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
         <v>137</v>
       </c>
       <c r="G39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
@@ -2992,48 +2998,48 @@
         <v>80</v>
       </c>
       <c r="N39" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="P39" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" t="s">
         <v>204</v>
       </c>
-      <c r="G40" t="s">
-        <v>203</v>
-      </c>
-      <c r="H40" t="s">
-        <v>202</v>
-      </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J40" t="s">
         <v>57</v>
       </c>
       <c r="K40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s">
         <v>113</v>
@@ -3042,10 +3048,10 @@
         <v>114</v>
       </c>
       <c r="N40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P40" t="s">
         <v>40</v>
@@ -3053,37 +3059,37 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G41" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I41" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J41" t="s">
         <v>112</v>
       </c>
       <c r="K41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s">
         <v>113</v>
@@ -3092,10 +3098,10 @@
         <v>114</v>
       </c>
       <c r="N41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P41" t="s">
         <v>40</v>
@@ -3103,37 +3109,37 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J42" t="s">
         <v>112</v>
       </c>
       <c r="K42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s">
         <v>113</v>
@@ -3142,10 +3148,10 @@
         <v>114</v>
       </c>
       <c r="N42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P42" t="s">
         <v>40</v>
@@ -3153,37 +3159,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J43" t="s">
         <v>112</v>
       </c>
       <c r="K43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L43" t="s">
         <v>113</v>
@@ -3192,10 +3198,10 @@
         <v>114</v>
       </c>
       <c r="N43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P43" t="s">
         <v>40</v>
@@ -3203,37 +3209,37 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G44" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J44" t="s">
         <v>112</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L44" t="s">
         <v>113</v>
@@ -3242,10 +3248,10 @@
         <v>114</v>
       </c>
       <c r="N44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P44" t="s">
         <v>40</v>
@@ -3253,37 +3259,37 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J45" t="s">
         <v>112</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L45" t="s">
         <v>113</v>
@@ -3292,10 +3298,10 @@
         <v>114</v>
       </c>
       <c r="N45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s">
         <v>40</v>
@@ -3303,37 +3309,37 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I46" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J46" t="s">
         <v>112</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s">
         <v>113</v>
@@ -3342,10 +3348,10 @@
         <v>114</v>
       </c>
       <c r="N46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P46" t="s">
         <v>40</v>
@@ -3353,37 +3359,37 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J47" t="s">
         <v>112</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L47" t="s">
         <v>113</v>
@@ -3392,10 +3398,10 @@
         <v>114</v>
       </c>
       <c r="N47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P47" t="s">
         <v>40</v>
@@ -3403,37 +3409,37 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J48" t="s">
         <v>112</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L48" t="s">
         <v>113</v>
@@ -3442,10 +3448,10 @@
         <v>114</v>
       </c>
       <c r="N48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P48" t="s">
         <v>40</v>
@@ -3459,22 +3465,22 @@
         <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" t="s">
         <v>229</v>
       </c>
-      <c r="F49" t="s">
-        <v>230</v>
-      </c>
-      <c r="G49" t="s">
-        <v>227</v>
-      </c>
       <c r="H49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
@@ -3492,10 +3498,10 @@
         <v>114</v>
       </c>
       <c r="N49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P49" t="s">
         <v>29</v>
@@ -3509,28 +3515,28 @@
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" t="s">
         <v>234</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>235</v>
-      </c>
-      <c r="G50" t="s">
-        <v>232</v>
-      </c>
-      <c r="H50" t="s">
-        <v>233</v>
       </c>
       <c r="I50" t="s">
         <v>36</v>
       </c>
       <c r="J50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s">
         <v>24</v>

--- a/input-data/metadata.xlsx
+++ b/input-data/metadata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t xml:space="preserve">topic.name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">level.date_range.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level.map</t>
   </si>
   <si>
     <t xml:space="preserve">vintage</t>
@@ -1106,2455 +1109,2605 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
         <v>29</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" t="s">
         <v>40</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
         <v>40</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" t="s">
         <v>40</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s">
         <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
         <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" t="s">
-        <v>81</v>
+        <v>40</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s">
         <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" t="s">
         <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" t="s">
         <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" t="s">
         <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" t="s">
-        <v>115</v>
+        <v>29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" t="s">
+        <v>115</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
         <v>116</v>
-      </c>
-      <c r="H21" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" t="s">
-        <v>113</v>
-      </c>
-      <c r="M21" t="s">
-        <v>114</v>
-      </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>120</v>
       </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" t="s">
-        <v>119</v>
-      </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" t="s">
         <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
         <v>122</v>
       </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
         <v>123</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>124</v>
       </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
-      </c>
-      <c r="P23" t="s">
         <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
         <v>126</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>127</v>
       </c>
-      <c r="F24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>126</v>
-      </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" t="s">
         <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
         <v>132</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>133</v>
       </c>
-      <c r="F25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" t="s">
-        <v>132</v>
-      </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P25" t="s">
-        <v>115</v>
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" t="s">
         <v>136</v>
       </c>
-      <c r="E26" t="s">
-        <v>135</v>
-      </c>
       <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" t="s">
         <v>137</v>
       </c>
-      <c r="G26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" t="s">
-        <v>136</v>
-      </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
-      </c>
-      <c r="P26" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
         <v>140</v>
       </c>
-      <c r="D27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H27" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" t="s">
-        <v>138</v>
-      </c>
-      <c r="O27" t="s">
-        <v>139</v>
-      </c>
-      <c r="P27" t="s">
-        <v>115</v>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" t="s">
         <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O29" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O30" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O31" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" t="s">
         <v>167</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>168</v>
       </c>
-      <c r="F32" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" t="s">
-        <v>167</v>
-      </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P32" t="s">
         <v>40</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" t="s">
         <v>173</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>174</v>
       </c>
-      <c r="F33" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" t="s">
-        <v>173</v>
-      </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O33" t="s">
-        <v>177</v>
-      </c>
-      <c r="P33" t="s">
-        <v>29</v>
+        <v>178</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>114</v>
+      </c>
+      <c r="M34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N34" t="s">
+        <v>177</v>
+      </c>
+      <c r="O34" t="s">
         <v>178</v>
       </c>
-      <c r="D34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" t="s">
-        <v>113</v>
-      </c>
-      <c r="M34" t="s">
-        <v>114</v>
-      </c>
-      <c r="N34" t="s">
-        <v>176</v>
-      </c>
-      <c r="O34" t="s">
-        <v>177</v>
-      </c>
-      <c r="P34" t="s">
-        <v>29</v>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O35" t="s">
-        <v>188</v>
-      </c>
-      <c r="P35" t="s">
-        <v>40</v>
+        <v>189</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H36" t="s">
+        <v>191</v>
+      </c>
+      <c r="I36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" t="s">
+        <v>114</v>
+      </c>
+      <c r="M36" t="s">
+        <v>115</v>
+      </c>
+      <c r="N36" t="s">
+        <v>188</v>
+      </c>
+      <c r="O36" t="s">
         <v>189</v>
       </c>
-      <c r="H36" t="s">
-        <v>190</v>
-      </c>
-      <c r="I36" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M36" t="s">
-        <v>114</v>
-      </c>
-      <c r="N36" t="s">
-        <v>187</v>
-      </c>
-      <c r="O36" t="s">
-        <v>188</v>
-      </c>
-      <c r="P36" t="s">
-        <v>40</v>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O37" t="s">
-        <v>188</v>
-      </c>
-      <c r="P37" t="s">
-        <v>40</v>
+        <v>189</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
         <v>194</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>195</v>
       </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" t="s">
-        <v>194</v>
-      </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" t="s">
         <v>29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O39" t="s">
-        <v>139</v>
-      </c>
-      <c r="P39" t="s">
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" t="s">
         <v>205</v>
       </c>
-      <c r="F40" t="s">
-        <v>206</v>
-      </c>
-      <c r="G40" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" t="s">
-        <v>204</v>
-      </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O40" t="s">
-        <v>209</v>
-      </c>
-      <c r="P40" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" t="s">
+        <v>209</v>
+      </c>
+      <c r="L41" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" t="s">
+        <v>115</v>
+      </c>
+      <c r="N41" t="s">
         <v>210</v>
       </c>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
-      <c r="E41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H41" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" t="s">
-        <v>207</v>
-      </c>
-      <c r="J41" t="s">
-        <v>112</v>
-      </c>
-      <c r="K41" t="s">
-        <v>208</v>
-      </c>
-      <c r="L41" t="s">
-        <v>113</v>
-      </c>
-      <c r="M41" t="s">
-        <v>114</v>
-      </c>
-      <c r="N41" t="s">
-        <v>209</v>
-      </c>
       <c r="O41" t="s">
-        <v>209</v>
-      </c>
-      <c r="P41" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>216</v>
+      </c>
+      <c r="H42" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" t="s">
+        <v>208</v>
+      </c>
+      <c r="J42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42" t="s">
+        <v>115</v>
+      </c>
+      <c r="N42" t="s">
         <v>210</v>
       </c>
-      <c r="D42" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" t="s">
-        <v>212</v>
-      </c>
-      <c r="F42" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" t="s">
-        <v>215</v>
-      </c>
-      <c r="H42" t="s">
-        <v>216</v>
-      </c>
-      <c r="I42" t="s">
-        <v>207</v>
-      </c>
-      <c r="J42" t="s">
-        <v>112</v>
-      </c>
-      <c r="K42" t="s">
-        <v>208</v>
-      </c>
-      <c r="L42" t="s">
-        <v>113</v>
-      </c>
-      <c r="M42" t="s">
-        <v>114</v>
-      </c>
-      <c r="N42" t="s">
-        <v>209</v>
-      </c>
       <c r="O42" t="s">
-        <v>209</v>
-      </c>
-      <c r="P42" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" t="s">
+        <v>218</v>
+      </c>
+      <c r="H43" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M43" t="s">
+        <v>115</v>
+      </c>
+      <c r="N43" t="s">
         <v>210</v>
       </c>
-      <c r="D43" t="s">
-        <v>211</v>
-      </c>
-      <c r="E43" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" t="s">
-        <v>217</v>
-      </c>
-      <c r="H43" t="s">
-        <v>218</v>
-      </c>
-      <c r="I43" t="s">
-        <v>207</v>
-      </c>
-      <c r="J43" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" t="s">
-        <v>208</v>
-      </c>
-      <c r="L43" t="s">
-        <v>113</v>
-      </c>
-      <c r="M43" t="s">
-        <v>114</v>
-      </c>
-      <c r="N43" t="s">
-        <v>209</v>
-      </c>
       <c r="O43" t="s">
-        <v>209</v>
-      </c>
-      <c r="P43" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" t="s">
+        <v>208</v>
+      </c>
+      <c r="J44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" t="s">
+        <v>114</v>
+      </c>
+      <c r="M44" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" t="s">
         <v>210</v>
       </c>
-      <c r="D44" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" t="s">
-        <v>212</v>
-      </c>
-      <c r="F44" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" t="s">
-        <v>219</v>
-      </c>
-      <c r="H44" t="s">
-        <v>220</v>
-      </c>
-      <c r="I44" t="s">
-        <v>207</v>
-      </c>
-      <c r="J44" t="s">
-        <v>112</v>
-      </c>
-      <c r="K44" t="s">
-        <v>208</v>
-      </c>
-      <c r="L44" t="s">
-        <v>113</v>
-      </c>
-      <c r="M44" t="s">
-        <v>114</v>
-      </c>
-      <c r="N44" t="s">
-        <v>209</v>
-      </c>
       <c r="O44" t="s">
-        <v>209</v>
-      </c>
-      <c r="P44" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" t="s">
+        <v>208</v>
+      </c>
+      <c r="J45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s">
+        <v>209</v>
+      </c>
+      <c r="L45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" t="s">
         <v>210</v>
       </c>
-      <c r="D45" t="s">
-        <v>211</v>
-      </c>
-      <c r="E45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" t="s">
-        <v>206</v>
-      </c>
-      <c r="G45" t="s">
-        <v>221</v>
-      </c>
-      <c r="H45" t="s">
-        <v>222</v>
-      </c>
-      <c r="I45" t="s">
-        <v>207</v>
-      </c>
-      <c r="J45" t="s">
-        <v>112</v>
-      </c>
-      <c r="K45" t="s">
-        <v>208</v>
-      </c>
-      <c r="L45" t="s">
-        <v>113</v>
-      </c>
-      <c r="M45" t="s">
-        <v>114</v>
-      </c>
-      <c r="N45" t="s">
-        <v>209</v>
-      </c>
       <c r="O45" t="s">
-        <v>209</v>
-      </c>
-      <c r="P45" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" t="s">
+        <v>115</v>
+      </c>
+      <c r="N46" t="s">
         <v>210</v>
       </c>
-      <c r="D46" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" t="s">
-        <v>212</v>
-      </c>
-      <c r="F46" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46" t="s">
-        <v>223</v>
-      </c>
-      <c r="H46" t="s">
-        <v>224</v>
-      </c>
-      <c r="I46" t="s">
-        <v>207</v>
-      </c>
-      <c r="J46" t="s">
-        <v>112</v>
-      </c>
-      <c r="K46" t="s">
-        <v>208</v>
-      </c>
-      <c r="L46" t="s">
-        <v>113</v>
-      </c>
-      <c r="M46" t="s">
-        <v>114</v>
-      </c>
-      <c r="N46" t="s">
-        <v>209</v>
-      </c>
       <c r="O46" t="s">
-        <v>209</v>
-      </c>
-      <c r="P46" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" t="s">
+        <v>226</v>
+      </c>
+      <c r="H47" t="s">
+        <v>227</v>
+      </c>
+      <c r="I47" t="s">
+        <v>208</v>
+      </c>
+      <c r="J47" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" t="s">
+        <v>209</v>
+      </c>
+      <c r="L47" t="s">
+        <v>114</v>
+      </c>
+      <c r="M47" t="s">
+        <v>115</v>
+      </c>
+      <c r="N47" t="s">
         <v>210</v>
       </c>
-      <c r="D47" t="s">
-        <v>211</v>
-      </c>
-      <c r="E47" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" t="s">
-        <v>206</v>
-      </c>
-      <c r="G47" t="s">
-        <v>225</v>
-      </c>
-      <c r="H47" t="s">
-        <v>226</v>
-      </c>
-      <c r="I47" t="s">
-        <v>207</v>
-      </c>
-      <c r="J47" t="s">
-        <v>112</v>
-      </c>
-      <c r="K47" t="s">
-        <v>208</v>
-      </c>
-      <c r="L47" t="s">
-        <v>113</v>
-      </c>
-      <c r="M47" t="s">
-        <v>114</v>
-      </c>
-      <c r="N47" t="s">
-        <v>209</v>
-      </c>
       <c r="O47" t="s">
-        <v>209</v>
-      </c>
-      <c r="P47" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O48" t="s">
-        <v>209</v>
-      </c>
-      <c r="P48" t="s">
-        <v>40</v>
+        <v>210</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" t="s">
         <v>230</v>
       </c>
-      <c r="E49" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" t="s">
-        <v>232</v>
-      </c>
-      <c r="G49" t="s">
-        <v>229</v>
-      </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O49" t="s">
-        <v>177</v>
-      </c>
-      <c r="P49" t="s">
-        <v>29</v>
+        <v>178</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D50" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" t="s">
         <v>235</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>236</v>
       </c>
-      <c r="F50" t="s">
-        <v>237</v>
-      </c>
-      <c r="G50" t="s">
-        <v>234</v>
-      </c>
-      <c r="H50" t="s">
-        <v>235</v>
-      </c>
       <c r="I50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O50" t="s">
-        <v>39</v>
-      </c>
-      <c r="P50" t="s">
-        <v>115</v>
+        <v>40</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
